--- a/desmos3d_back/stock_metrics_by_year.xlsx
+++ b/desmos3d_back/stock_metrics_by_year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="289">
   <si>
     <t>Компания</t>
   </si>
@@ -235,34 +235,34 @@
     <t>-11.7</t>
   </si>
   <si>
-    <t>-0.63</t>
-  </si>
-  <si>
-    <t>6.59</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>10.8</t>
+    <t>-0.72</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>6.99</t>
+  </si>
+  <si>
+    <t>35.3</t>
   </si>
   <si>
     <t>14.8</t>
   </si>
   <si>
-    <t>8.91</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>-14.2</t>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>6.81</t>
+  </si>
+  <si>
+    <t>-16.1</t>
   </si>
   <si>
     <t>487.7</t>
@@ -325,31 +325,37 @@
     <t>11.5</t>
   </si>
   <si>
-    <t>-47.8</t>
-  </si>
-  <si>
-    <t>8.12</t>
-  </si>
-  <si>
-    <t>6.34</t>
+    <t>-49.6</t>
+  </si>
+  <si>
+    <t>8.62</t>
+  </si>
+  <si>
+    <t>6.76</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>11.4</t>
   </si>
   <si>
     <t>12.8</t>
   </si>
   <si>
-    <t>8.11</t>
-  </si>
-  <si>
-    <t>5.75</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>5.55</t>
-  </si>
-  <si>
-    <t>8.42</t>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>10.0</t>
   </si>
   <si>
     <t>0.96</t>
@@ -415,37 +421,31 @@
     <t>1.13</t>
   </si>
   <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>4.69</t>
-  </si>
-  <si>
-    <t>4.87</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>1.11</t>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>1.25</t>
   </si>
   <si>
     <t>-2.17</t>
@@ -505,31 +505,31 @@
     <t>-5.20</t>
   </si>
   <si>
-    <t>-0.45</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>-12.2</t>
-  </si>
-  <si>
-    <t>-9.65</t>
-  </si>
-  <si>
-    <t>40.9</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>7.57</t>
-  </si>
-  <si>
-    <t>-5.44</t>
+    <t>-0.52</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>-13.0</t>
+  </si>
+  <si>
+    <t>-9.95</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>-6.15</t>
   </si>
   <si>
     <t>127.0 млрд. руб.</t>
@@ -598,34 +598,37 @@
     <t>693.3 млрд. руб.</t>
   </si>
   <si>
-    <t>1 569 млрд. руб.</t>
-  </si>
-  <si>
-    <t>156.6 млрд. руб.</t>
-  </si>
-  <si>
-    <t>82.3 млрд. руб.</t>
-  </si>
-  <si>
-    <t>80.7 млрд. руб.</t>
-  </si>
-  <si>
-    <t>29.3 млрд. руб.</t>
-  </si>
-  <si>
-    <t>33.8 млрд. руб.</t>
-  </si>
-  <si>
-    <t>41.1 млрд. руб.</t>
-  </si>
-  <si>
-    <t>17.7 млрд. руб.</t>
-  </si>
-  <si>
-    <t>12.7 млрд. руб.</t>
-  </si>
-  <si>
-    <t>769.8 млрд. руб.</t>
+    <t>69.0 млрд. руб.</t>
+  </si>
+  <si>
+    <t>1 670 млрд. руб.</t>
+  </si>
+  <si>
+    <t>166.3 млрд. руб.</t>
+  </si>
+  <si>
+    <t>84.8 млрд. руб.</t>
+  </si>
+  <si>
+    <t>86.0 млрд. руб.</t>
+  </si>
+  <si>
+    <t>29.4 млрд. руб.</t>
+  </si>
+  <si>
+    <t>34.1 млрд. руб.</t>
+  </si>
+  <si>
+    <t>42.1 млрд. руб.</t>
+  </si>
+  <si>
+    <t>20.4 млрд. руб.</t>
+  </si>
+  <si>
+    <t>12.9 млрд. руб.</t>
+  </si>
+  <si>
+    <t>870.2 млрд. руб.</t>
   </si>
   <si>
     <t>226.1 млн.</t>
@@ -694,24 +697,36 @@
     <t>0.2%</t>
   </si>
   <si>
-    <t>2.2%</t>
+    <t>2.9%</t>
   </si>
   <si>
     <t>0.6%</t>
   </si>
   <si>
-    <t>29.3%</t>
+    <t>2.1%</t>
+  </si>
+  <si>
+    <t>3.7%</t>
+  </si>
+  <si>
+    <t>27.6%</t>
+  </si>
+  <si>
+    <t>1.4%</t>
+  </si>
+  <si>
+    <t>6.4%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>5.4%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
-  </si>
-  <si>
     <t>-34.3</t>
   </si>
   <si>
@@ -781,6 +796,9 @@
     <t>2.40</t>
   </si>
   <si>
+    <t>5.81</t>
+  </si>
+  <si>
     <t>3.14</t>
   </si>
   <si>
@@ -838,9 +856,6 @@
     <t>81.1</t>
   </si>
   <si>
-    <t>14.3</t>
-  </si>
-  <si>
     <t>3.33</t>
   </si>
   <si>
@@ -856,13 +871,16 @@
     <t>24.6</t>
   </si>
   <si>
+    <t>18.5</t>
+  </si>
+  <si>
     <t>83.7</t>
   </si>
   <si>
     <t>695.7</t>
   </si>
   <si>
-    <t>2025-05-23</t>
+    <t>2025-06-05</t>
   </si>
 </sst>
 </file>
@@ -1344,13 +1362,13 @@
         <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
         <v>144</v>
@@ -1368,46 +1386,46 @@
         <v>183</v>
       </c>
       <c r="Q2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="R2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Y2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Z2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AA2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AB2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AC2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AD2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1424,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>84</v>
@@ -1436,13 +1454,13 @@
         <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
         <v>145</v>
@@ -1460,46 +1478,46 @@
         <v>184</v>
       </c>
       <c r="Q3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="X3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Y3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Z3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AA3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AB3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AC3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AD3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1516,7 +1534,7 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>85</v>
@@ -1528,13 +1546,13 @@
         <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
         <v>146</v>
@@ -1552,46 +1570,46 @@
         <v>185</v>
       </c>
       <c r="Q4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="X4" t="s">
         <v>59</v>
       </c>
       <c r="Y4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Z4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AA4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AB4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AC4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AD4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1608,7 +1626,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
@@ -1617,16 +1635,16 @@
         <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
         <v>147</v>
@@ -1644,46 +1662,46 @@
         <v>186</v>
       </c>
       <c r="Q5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U5" t="s">
+        <v>222</v>
+      </c>
+      <c r="V5" t="s">
+        <v>226</v>
+      </c>
+      <c r="W5" t="s">
         <v>221</v>
       </c>
-      <c r="V5" t="s">
-        <v>225</v>
-      </c>
-      <c r="W5" t="s">
-        <v>229</v>
-      </c>
       <c r="X5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Y5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Z5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AA5" t="s">
         <v>69</v>
       </c>
       <c r="AB5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AD5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1700,7 +1718,7 @@
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -1709,16 +1727,16 @@
         <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
         <v>148</v>
@@ -1736,46 +1754,46 @@
         <v>187</v>
       </c>
       <c r="Q6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="X6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Y6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Z6" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="AA6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AB6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AD6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1792,7 +1810,7 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
@@ -1801,16 +1819,16 @@
         <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L7" t="s">
         <v>102</v>
@@ -1819,7 +1837,7 @@
         <v>158</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="O7" t="s">
         <v>177</v>
@@ -1828,46 +1846,46 @@
         <v>188</v>
       </c>
       <c r="Q7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="X7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Y7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Z7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AA7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AB7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AC7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AD7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1893,16 +1911,16 @@
         <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
         <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -1911,7 +1929,7 @@
         <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
         <v>178</v>
@@ -1920,37 +1938,37 @@
         <v>189</v>
       </c>
       <c r="Q8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="X8" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Y8" t="s">
         <v>68</v>
       </c>
       <c r="Z8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AA8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AB8" t="s">
         <v>68</v>
@@ -1959,7 +1977,7 @@
         <v>71</v>
       </c>
       <c r="AD8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1985,16 +2003,16 @@
         <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
         <v>149</v>
@@ -2012,46 +2030,46 @@
         <v>190</v>
       </c>
       <c r="Q9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V9" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="W9" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="X9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Y9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Z9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AA9" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AB9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AC9" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AD9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -2077,13 +2095,13 @@
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
         <v>141</v>
@@ -2104,46 +2122,46 @@
         <v>191</v>
       </c>
       <c r="Q10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Y10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Z10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AA10" t="s">
         <v>88</v>
       </c>
       <c r="AB10" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="AC10" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="AD10" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -2169,13 +2187,13 @@
         <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
         <v>142</v>
@@ -2196,46 +2214,46 @@
         <v>192</v>
       </c>
       <c r="Q11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Y11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Z11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AA11" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AB11" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC11" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AD11" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -2261,13 +2279,13 @@
         <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
         <v>143</v>
@@ -2288,46 +2306,46 @@
         <v>193</v>
       </c>
       <c r="Q12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W12" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="X12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Y12" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Z12" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA12" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AB12" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AC12" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AD12" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
